--- a/Gaming/BYD.xlsx
+++ b/Gaming/BYD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1460EE98-E0B1-4B3A-B3DE-E3BABE414CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978F457-0FED-4061-B380-CFE099051775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="315" windowWidth="15255" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$10:$W$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$9:$W$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$34</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$33:$W$33</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$34:$W$34</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$34</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$33:$W$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$34:$W$34</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$10:$W$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$9:$W$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1044,7 +1044,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1118,6 +1118,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,22 +1153,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -13989,18 +13981,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -14044,7 +14036,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14064,7 +14056,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14095,18 +14087,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -14150,7 +14142,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -14170,7 +14162,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19365,7 +19357,7 @@
       <c r="F3" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" t="s">
         <v>128</v>
       </c>
       <c r="I3" s="10">
@@ -19394,7 +19386,7 @@
       <c r="F4" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" t="s">
         <v>135</v>
       </c>
       <c r="I4" s="10">
@@ -19421,7 +19413,7 @@
       <c r="F5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" t="s">
         <v>126</v>
       </c>
       <c r="I5" s="10">
@@ -19452,7 +19444,7 @@
       <c r="F6" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" t="s">
         <v>133</v>
       </c>
       <c r="I6" s="10">
@@ -19483,7 +19475,7 @@
       <c r="F7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" t="s">
         <v>124</v>
       </c>
       <c r="I7" s="10">
@@ -19515,7 +19507,7 @@
       <c r="F8" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" t="s">
         <v>122</v>
       </c>
       <c r="I8" s="10">
@@ -19544,7 +19536,7 @@
       <c r="F9" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" t="s">
         <v>129</v>
       </c>
       <c r="I9" s="10">
@@ -19669,11 +19661,11 @@
       <c r="E17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -19683,81 +19675,81 @@
       <c r="E18" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="66"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="68"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="55"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="68"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="68"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="51"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="68"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="68"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="76"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="68"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="68"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="68"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="76"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -19770,9 +19762,9 @@
       <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="68"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -19782,9 +19774,9 @@
         <f>(Model!F25+Model!F20)/-Model!F26</f>
         <v>7.8623991422425217</v>
       </c>
-      <c r="L28" s="69"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="79"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -19841,7 +19833,7 @@
       <c r="B36" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="82"/>
+      <c r="C36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19944,16 +19936,16 @@
       <c r="A3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="10">
         <v>2483.2930000000001</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="10">
         <v>1775.3579999999999</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="10">
         <v>2705.5230000000001</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="10">
         <v>2674.73</v>
       </c>
       <c r="F3" s="15">
@@ -19964,16 +19956,16 @@
       <c r="A4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="10">
         <v>447.85300000000001</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="10">
         <v>178.87799999999999</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="10">
         <v>230.04499999999999</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="10">
         <v>275.97899999999998</v>
       </c>
       <c r="F4" s="15">
@@ -19984,16 +19976,16 @@
       <c r="A5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="10">
         <v>237.18700000000001</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="10">
         <v>104.968</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="10">
         <v>154.18</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="10">
         <v>189.071</v>
       </c>
       <c r="F5" s="15">
@@ -20004,14 +19996,14 @@
       <c r="A6" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="10">
         <v>0</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
         <v>172.518</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="10">
         <v>253.898</v>
       </c>
       <c r="F6" s="15">
@@ -20022,17 +20014,17 @@
       <c r="A7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="10">
         <v>0</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="10">
         <v>26.905000000000001</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="15">
         <v>76.921000000000006</v>
       </c>
     </row>
@@ -20040,19 +20032,19 @@
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="10">
         <v>157.786</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="10">
         <v>119.286</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="10">
         <v>107.554</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="10">
         <v>134.79400000000001</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="15">
         <v>138.53800000000001</v>
       </c>
     </row>
@@ -20126,7 +20118,7 @@
       <c r="X10" s="41"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="10">
@@ -20144,8 +20136,8 @@
       <c r="F11" s="15">
         <v>1000.24</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
@@ -20162,7 +20154,7 @@
       <c r="X11" s="41"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="10">
@@ -20180,8 +20172,8 @@
       <c r="F12" s="15">
         <v>240.87899999999999</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
@@ -20198,7 +20190,7 @@
       <c r="X12" s="41"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="A13" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="10">
@@ -20216,8 +20208,8 @@
       <c r="F13" s="15">
         <v>73.489999999999995</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -20234,7 +20226,7 @@
       <c r="X13" s="41"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
       <c r="B14" s="10">
@@ -20252,8 +20244,8 @@
       <c r="F14" s="15">
         <v>358.988</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
@@ -20270,7 +20262,7 @@
       <c r="X14" s="41"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="10">
@@ -20288,8 +20280,8 @@
       <c r="F15" s="15">
         <v>46.323</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -20322,7 +20314,7 @@
         <v>1432.48</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" ref="E16:G16" si="0">SUM(E11:E15)</f>
+        <f t="shared" ref="E16" si="0">SUM(E11:E15)</f>
         <v>1565.204</v>
       </c>
       <c r="F16" s="11">
@@ -20654,19 +20646,19 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="78">
+      <c r="B25" s="11">
         <f t="shared" ref="B25:E25" si="1">B9-B16-B17-B18-B19-B20-B24-B21-B22-B23</f>
         <v>472.56799999999981</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="11">
         <f t="shared" si="1"/>
         <v>14.262999999999835</v>
       </c>
-      <c r="D25" s="78">
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
         <v>900.11400000000003</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="11">
         <f t="shared" si="1"/>
         <v>981.22400000000016</v>
       </c>
@@ -20674,11 +20666,11 @@
         <f>F9-F16-F17-F18-F19-F20-F24-F21-F22-F23</f>
         <v>901.83100000000036</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="11">
         <f>G10-G16-G17-G18-G19-G20-G24-G21-G22-G23</f>
         <v>977.2</v>
       </c>
-      <c r="H25" s="78">
+      <c r="H25" s="11">
         <f>H10-H16-H17-H18-H19-H20-H24-H21-H22-H23</f>
         <v>1014.3000000000002</v>
       </c>
@@ -20942,11 +20934,11 @@
       <c r="F30" s="15">
         <v>-132.88399999999999</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="67">
         <f>-G29*0.18</f>
         <v>-150.696</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="67">
         <f>-H29*0.18</f>
         <v>-157.37400000000002</v>
       </c>
@@ -20967,19 +20959,19 @@
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="77">
+      <c r="B31" s="11">
         <f t="shared" ref="B31:E31" si="5">B29+B30</f>
         <v>157.63599999999983</v>
       </c>
-      <c r="C31" s="77">
+      <c r="C31" s="11">
         <f t="shared" si="5"/>
         <v>-134.70000000000019</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="11">
         <f t="shared" si="5"/>
         <v>463.87600000000009</v>
       </c>
-      <c r="E31" s="77">
+      <c r="E31" s="11">
         <f t="shared" si="5"/>
         <v>639.37700000000007</v>
       </c>
@@ -20987,63 +20979,63 @@
         <f>F29+F30</f>
         <v>620.02300000000037</v>
       </c>
-      <c r="G31" s="85">
+      <c r="G31" s="68">
         <f>G29+G30</f>
         <v>686.50400000000002</v>
       </c>
-      <c r="H31" s="85">
+      <c r="H31" s="68">
         <f>H29+H30</f>
         <v>716.92600000000016</v>
       </c>
-      <c r="K31" s="77">
-        <f t="shared" ref="K31:L31" si="6">K29+K30</f>
+      <c r="K31" s="11">
+        <f t="shared" ref="K31" si="6">K29+K30</f>
         <v>0</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="11">
         <f t="shared" ref="L31" si="7">L29+L30</f>
         <v>0</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="11">
         <f t="shared" ref="M31" si="8">M29+M30</f>
         <v>0</v>
       </c>
-      <c r="N31" s="77">
+      <c r="N31" s="11">
         <f t="shared" ref="N31" si="9">N29+N30</f>
         <v>0</v>
       </c>
-      <c r="O31" s="77">
+      <c r="O31" s="11">
         <f t="shared" ref="O31" si="10">O29+O30</f>
         <v>0</v>
       </c>
-      <c r="P31" s="77">
+      <c r="P31" s="11">
         <f t="shared" ref="P31" si="11">P29+P30</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="77">
+      <c r="Q31" s="11">
         <f t="shared" ref="Q31" si="12">Q29+Q30</f>
         <v>0</v>
       </c>
-      <c r="R31" s="77">
+      <c r="R31" s="11">
         <f t="shared" ref="R31" si="13">R29+R30</f>
         <v>0</v>
       </c>
-      <c r="S31" s="77">
+      <c r="S31" s="11">
         <f t="shared" ref="S31" si="14">S29+S30</f>
         <v>0</v>
       </c>
-      <c r="T31" s="77">
+      <c r="T31" s="11">
         <f t="shared" ref="T31" si="15">T29+T30</f>
         <v>0</v>
       </c>
-      <c r="U31" s="77">
+      <c r="U31" s="11">
         <f t="shared" ref="U31" si="16">U29+U30</f>
         <v>0</v>
       </c>
-      <c r="V31" s="77">
+      <c r="V31" s="11">
         <f t="shared" ref="V31" si="17">V29+V30</f>
         <v>0</v>
       </c>
-      <c r="W31" s="77">
+      <c r="W31" s="11">
         <f t="shared" ref="W31" si="18">W29+W30</f>
         <v>0</v>
       </c>
@@ -21113,10 +21105,10 @@
         <f>F31/F32</f>
         <v>6.1191512459906274</v>
       </c>
-      <c r="G33" s="86">
+      <c r="G33" s="69">
         <v>6.2</v>
       </c>
-      <c r="H33" s="86">
+      <c r="H33" s="69">
         <v>6.28</v>
       </c>
       <c r="K33" s="2"/>
@@ -21191,51 +21183,51 @@
         <v>0.53</v>
       </c>
       <c r="K35" s="3" t="e">
-        <f>1-K16/K9</f>
+        <f t="shared" ref="K35:V35" si="19">1-K16/K9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="3" t="e">
-        <f>1-L16/L9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="3" t="e">
-        <f>1-M16/M9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="3" t="e">
-        <f>1-N16/N9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="3" t="e">
-        <f>1-O16/O9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="3" t="e">
-        <f>1-P16/P9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="3" t="e">
-        <f>1-Q16/Q9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="3" t="e">
-        <f>1-R16/R9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="3" t="e">
-        <f>1-S16/S9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="3" t="e">
-        <f>1-T16/T9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="3" t="e">
-        <f>1-U16/U9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="6" t="e">
-        <f>1-V16/V9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21272,51 +21264,51 @@
         <v>0.18816955380577433</v>
       </c>
       <c r="K36" s="4" t="e">
-        <f>K31/K9</f>
+        <f t="shared" ref="K36:V36" si="20">K31/K9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="4" t="e">
-        <f>L31/L9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="4" t="e">
-        <f>M31/M9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="4" t="e">
-        <f>N31/N9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="4" t="e">
-        <f>O31/O9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="4" t="e">
-        <f>P31/P9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="4" t="e">
-        <f>Q31/Q9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="4" t="e">
-        <f>R31/R9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="4" t="e">
-        <f>S31/S9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="4" t="e">
-        <f>T31/T9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U36" s="4" t="e">
-        <f>U31/U9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V36" s="7" t="e">
-        <f>V31/V9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21354,35 +21346,35 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="e">
-        <f>O9/K9-1</f>
+        <f t="shared" ref="O37:V37" si="21">O9/K9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="4" t="e">
-        <f>P9/L9-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="4" t="e">
-        <f>Q9/M9-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="4" t="e">
-        <f>R9/N9-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="4" t="e">
-        <f>S9/O9-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T37" s="4" t="e">
-        <f>T9/P9-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U37" s="4" t="e">
-        <f>U9/Q9-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V37" s="7" t="e">
-        <f>V9/R9-1</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W37" s="37" t="e">
@@ -21421,51 +21413,51 @@
       <c r="G38" s="50"/>
       <c r="H38" s="49"/>
       <c r="K38" s="4" t="e">
-        <f>K17/K9</f>
+        <f t="shared" ref="K38:V38" si="22">K17/K9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="4" t="e">
-        <f>L17/L9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="4" t="e">
-        <f>M17/M9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="4" t="e">
-        <f>N17/N9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="4" t="e">
-        <f>O17/O9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="4" t="e">
-        <f>P17/P9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="4" t="e">
-        <f>Q17/Q9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="4" t="e">
-        <f>R17/R9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="4" t="e">
-        <f>S17/S9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="4" t="e">
-        <f>T17/T9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="4" t="e">
-        <f>U17/U9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V38" s="7" t="e">
-        <f>V17/V9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W38" s="4"/>
@@ -21477,11 +21469,11 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="79">
+      <c r="E39" s="63">
         <f>E6/D6-1</f>
         <v>0.47171889310100967</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="64">
         <f>F6/E6-1</f>
         <v>0.66291581658776377</v>
       </c>
@@ -21560,23 +21552,23 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="e">
-        <f t="shared" ref="O41:W41" si="19">O31/K31-1</f>
+        <f t="shared" ref="O41:W41" si="23">O31/K31-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T41" s="4" t="e">
@@ -21584,15 +21576,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V41" s="7" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W41" s="4" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21620,8 +21612,8 @@
         <f>F26/F9</f>
         <v>-3.9417230262897451E-2</v>
       </c>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -21660,8 +21652,8 @@
         <f>-F26/F25</f>
         <v>0.16340201212865821</v>
       </c>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -21685,19 +21677,19 @@
         <v>0</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" ref="C46:F46" si="20">C47+C48+C49-C60-C61-C66</f>
+        <f t="shared" ref="C46:F46" si="24">C47+C48+C49-C60-C61-C66</f>
         <v>329.80000000000007</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>37.602000000000089</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-88.711999999999961</v>
       </c>
       <c r="F46" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-11.947000000000003</v>
       </c>
       <c r="K46" s="11">
@@ -21705,47 +21697,47 @@
         <v>0</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" ref="L46:V46" si="21">L47+L48+L49-L60-L61</f>
+        <f t="shared" ref="L46:V46" si="25">L47+L48+L49-L60-L61</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -21954,51 +21946,51 @@
         <v>529.31500000000005</v>
       </c>
       <c r="K53" s="11">
-        <f>SUM(K47:K52)</f>
+        <f t="shared" ref="K53:V53" si="26">SUM(K47:K52)</f>
         <v>0</v>
       </c>
       <c r="L53" s="11">
-        <f>SUM(L47:L52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f>SUM(M47:M52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N53" s="11">
-        <f>SUM(N47:N52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O53" s="11">
-        <f>SUM(O47:O52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P53" s="11">
-        <f>SUM(P47:P52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q53" s="11">
-        <f>SUM(Q47:Q52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R53" s="11">
-        <f>SUM(R47:R52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S53" s="11">
-        <f>SUM(S47:S52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T53" s="11">
-        <f>SUM(T47:T52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U53" s="11">
-        <f>SUM(U47:U52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V53" s="14">
-        <f>SUM(V47:V52)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -22177,51 +22169,51 @@
         <v>6273.1260000000002</v>
       </c>
       <c r="K59" s="11">
-        <f>SUM(K53:K58)</f>
+        <f t="shared" ref="K59:V59" si="27">SUM(K53:K58)</f>
         <v>0</v>
       </c>
       <c r="L59" s="11">
-        <f>SUM(L53:L58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M59" s="11">
-        <f>SUM(M53:M58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N59" s="11">
-        <f>SUM(N53:N58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O59" s="11">
-        <f>SUM(O53:O58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P59" s="11">
-        <f>SUM(P53:P58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q59" s="11">
-        <f>SUM(Q53:Q58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R59" s="11">
-        <f>SUM(R53:R58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S59" s="11">
-        <f>SUM(S53:S58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T59" s="11">
-        <f>SUM(T53:T58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U59" s="11">
-        <f>SUM(U53:U58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V59" s="14">
-        <f>SUM(V53:V58)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -22340,51 +22332,51 @@
         <v>596.322</v>
       </c>
       <c r="K63" s="11">
-        <f>SUM(K60:K62)</f>
+        <f t="shared" ref="K63:V63" si="28">SUM(K60:K62)</f>
         <v>0</v>
       </c>
       <c r="L63" s="11">
-        <f>SUM(L60:L62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M63" s="11">
-        <f>SUM(M60:M62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N63" s="11">
-        <f>SUM(N60:N62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O63" s="11">
-        <f>SUM(O60:O62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P63" s="11">
-        <f>SUM(P60:P62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q63" s="11">
-        <f>SUM(Q60:Q62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R63" s="11">
-        <f>SUM(R60:R62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S63" s="11">
-        <f>SUM(S60:S62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T63" s="11">
-        <f>SUM(T60:T62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U63" s="11">
-        <f>SUM(U60:U62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V63" s="14">
-        <f>SUM(V60:V62)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W63" s="11"/>
@@ -22536,51 +22528,51 @@
         <v>4529.0239999999994</v>
       </c>
       <c r="K68" s="11">
-        <f>SUM(K63:K67)</f>
+        <f t="shared" ref="K68:V68" si="29">SUM(K63:K67)</f>
         <v>0</v>
       </c>
       <c r="L68" s="11">
-        <f>SUM(L63:L67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M68" s="11">
-        <f>SUM(M63:M67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
-        <f>SUM(N63:N67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <f>SUM(O63:O67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P68" s="11">
-        <f>SUM(P63:P67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f>SUM(Q63:Q67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
-        <f>SUM(R63:R67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S68" s="11">
-        <f>SUM(S63:S67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T68" s="11">
-        <f>SUM(T63:T67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U68" s="11">
-        <f>SUM(U63:U67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V68" s="14">
-        <f>SUM(V63:V67)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -22588,14 +22580,14 @@
       <c r="A69" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="74"/>
-      <c r="C69" s="74">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10">
         <v>1123.943</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="10">
         <v>1538.7460000000001</v>
       </c>
-      <c r="E69" s="74">
+      <c r="E69" s="10">
         <v>1590.625</v>
       </c>
       <c r="F69" s="15">
@@ -22606,20 +22598,20 @@
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="81" t="e">
-        <f t="shared" ref="B71:E71" si="22">-B26/(B64+B61)</f>
+      <c r="B71" s="65" t="e">
+        <f t="shared" ref="B71:E71" si="30">-B26/(B64+B61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C71" s="81">
-        <f t="shared" si="22"/>
+      <c r="C71" s="65">
+        <f t="shared" si="30"/>
         <v>5.8649133299619273E-2</v>
       </c>
-      <c r="D71" s="81">
-        <f t="shared" si="22"/>
+      <c r="D71" s="65">
+        <f t="shared" si="30"/>
         <v>6.5181221496018266E-2</v>
       </c>
-      <c r="E71" s="81">
-        <f t="shared" si="22"/>
+      <c r="E71" s="65">
+        <f t="shared" si="30"/>
         <v>4.2539062487190138E-2</v>
       </c>
       <c r="F71" s="59">
